--- a/biology/Botanique/Wedelia_fruticosa/Wedelia_fruticosa.xlsx
+++ b/biology/Botanique/Wedelia_fruticosa/Wedelia_fruticosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wedelia fruticosa ou fructicosa[1] est une espèce de plantes à fleurs de la famille des Astéracées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wedelia fruticosa ou fructicosa est une espèce de plantes à fleurs de la famille des Astéracées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Seruneum scaberrimum (Benth.) Kuntze
 Wedelia calycina  Rich.
@@ -519,7 +533,7 @@
 Wedelia jacquinii var. caracasana (DC.) O.E. Schulz
 Wedelia jacquinii var. parviflora (Rich.) O.E. Schulz
 Wedelia pulchella Kunth
-Wedelia frutescens Jacq[4]</t>
+Wedelia frutescens Jacq</t>
         </is>
       </c>
     </row>
@@ -547,11 +561,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plante vivace par le bas, à branches herbacées, haut de 1 à 2 m, rarement plus, droit ou tortueux, peu ou fortement branchu, à branches et jeune tige médulleuses, garnies de soies courtes et rudes.
 Feuilles pétiolées, ovales elliptiques, acuminées, sérretées, très scabres-hispides.
-Capitules jaunes solitaires ou géminés , terminaux[4].</t>
+Capitules jaunes solitaires ou géminés , terminaux.</t>
         </is>
       </c>
     </row>
@@ -579,10 +595,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fréquent dans les endroits secs des mornes inférieurs ou dans les falaises et les sables du bord de mer, dans les Antilles en Amérique centrale.
-Il est présent en Martinique mais ne le serait pas en Guadeloupe[4]. 
+Il est présent en Martinique mais ne le serait pas en Guadeloupe. 
 </t>
         </is>
       </c>
